--- a/Go语言标准库源码解读.xlsx
+++ b/Go语言标准库源码解读.xlsx
@@ -1084,7 +1084,41 @@
               <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>受垃圾回收器限制，指针型缓冲槽须单独分配内存</a:t>
+            <a:t>受垃圾回收器限制，指针型缓冲槽须单独分配内存，因为这个分配的类型是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nil</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，内存分配器觉得他不包含指针</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7961,7 +7995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q72" sqref="Q72"/>
     </sheetView>
   </sheetViews>
@@ -7982,7 +8016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -7999,8 +8033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U690" sqref="U690"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF180" sqref="AF180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
